--- a/Cmf.Custom.IoT/MuetecDaVinci/MasterData/MuetecDaVinci.xlsx
+++ b/Cmf.Custom.IoT/MuetecDaVinci/MasterData/MuetecDaVinci.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\osram\AMSOSRAM\Cmf.Custom.IoT\MuetecDaVinci\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwieler\source\repos\AMSOSRAM\Cmf.Custom.IoT\MuetecDaVinci\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DAECBB-390C-4037-B6FC-A9228886D96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17322537-EEBF-435D-8B09-2E8E612F4BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="40275" yWindow="4095" windowWidth="14400" windowHeight="7365" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10045" uniqueCount="2363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10050" uniqueCount="2363">
   <si>
     <t>Tab Name</t>
   </si>
@@ -8824,7 +8824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -10094,7 +10094,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -10147,7 +10147,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -10159,7 +10159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -10171,7 +10171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -10183,7 +10183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -10195,7 +10195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -10207,7 +10207,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -10221,7 +10221,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -10270,12 +10270,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="6" max="6" width="57.42578125" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
-    <col min="9" max="9" width="81.42578125" customWidth="1"/>
+    <col min="6" max="6" width="57.453125" customWidth="1"/>
+    <col min="7" max="7" width="52.453125" customWidth="1"/>
+    <col min="8" max="8" width="42.26953125" customWidth="1"/>
+    <col min="9" max="9" width="81.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -20268,13 +20268,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:XFD199"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="H336" sqref="H336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="8" max="8" width="56.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="8" max="8" width="56.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -27876,7 +27877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -28153,15 +28154,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
-      <selection activeCell="C971" sqref="C971"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.26953125" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28182,7 +28183,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>495</v>
       </c>
@@ -28830,7 +28831,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="45">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>495</v>
       </c>
@@ -28848,7 +28849,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="45">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>495</v>
       </c>
@@ -28884,7 +28885,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>495</v>
       </c>
@@ -28938,7 +28939,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="30">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>495</v>
       </c>
@@ -29208,7 +29209,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="30">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>495</v>
       </c>
@@ -29226,7 +29227,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="30">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>495</v>
       </c>
@@ -29334,7 +29335,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="30">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>495</v>
       </c>
@@ -29604,7 +29605,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="30">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>495</v>
       </c>
@@ -29622,7 +29623,7 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" ht="30">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>495</v>
       </c>
@@ -29730,7 +29731,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" ht="30">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>495</v>
       </c>
@@ -29766,7 +29767,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="30">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>495</v>
       </c>
@@ -29802,7 +29803,7 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="30">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>495</v>
       </c>
@@ -29838,7 +29839,7 @@
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="30">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>495</v>
       </c>
@@ -29874,7 +29875,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="30">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>495</v>
       </c>
@@ -29982,7 +29983,7 @@
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="30">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>495</v>
       </c>
@@ -30018,7 +30019,7 @@
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" ht="30">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>495</v>
       </c>
@@ -30126,7 +30127,7 @@
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="30">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>495</v>
       </c>
@@ -30162,7 +30163,7 @@
       </c>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" ht="30">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>495</v>
       </c>
@@ -30252,7 +30253,7 @@
       </c>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" ht="30">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>495</v>
       </c>
@@ -30918,7 +30919,7 @@
       </c>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" ht="30">
+    <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
         <v>495</v>
       </c>
@@ -31314,7 +31315,7 @@
       </c>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" ht="30">
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>495</v>
       </c>
@@ -31368,7 +31369,7 @@
       </c>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" ht="30">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>495</v>
       </c>
@@ -31422,7 +31423,7 @@
       </c>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" ht="30">
+    <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
         <v>495</v>
       </c>
@@ -31476,7 +31477,7 @@
       </c>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" ht="30">
+    <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
         <v>495</v>
       </c>
@@ -31530,7 +31531,7 @@
       </c>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" ht="30">
+    <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
         <v>495</v>
       </c>
@@ -31584,7 +31585,7 @@
       </c>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" ht="30">
+    <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
         <v>495</v>
       </c>
@@ -31638,7 +31639,7 @@
       </c>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6" ht="30">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>495</v>
       </c>
@@ -31692,7 +31693,7 @@
       </c>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" ht="30">
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
         <v>495</v>
       </c>
@@ -31746,7 +31747,7 @@
       </c>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6" ht="30">
+    <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
         <v>495</v>
       </c>
@@ -32119,7 +32120,9 @@
       <c r="D220" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E220" s="2"/>
+      <c r="E220" s="4" t="s">
+        <v>1518</v>
+      </c>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6">
@@ -32135,7 +32138,9 @@
       <c r="D221" s="2">
         <v>2</v>
       </c>
-      <c r="E221" s="2"/>
+      <c r="E221" s="4" t="s">
+        <v>1518</v>
+      </c>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6">
@@ -32151,7 +32156,9 @@
       <c r="D222" s="2">
         <v>3</v>
       </c>
-      <c r="E222" s="2"/>
+      <c r="E222" s="4" t="s">
+        <v>1518</v>
+      </c>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6">
@@ -32167,7 +32174,9 @@
       <c r="D223" s="2">
         <v>4</v>
       </c>
-      <c r="E223" s="2"/>
+      <c r="E223" s="4" t="s">
+        <v>1518</v>
+      </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6">
@@ -32183,7 +32192,9 @@
       <c r="D224" s="2">
         <v>5</v>
       </c>
-      <c r="E224" s="2"/>
+      <c r="E224" s="4" t="s">
+        <v>1518</v>
+      </c>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6">
@@ -34220,7 +34231,7 @@
       </c>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:6" ht="30">
+    <row r="338" spans="1:6">
       <c r="A338" s="1" t="s">
         <v>495</v>
       </c>
@@ -34274,7 +34285,7 @@
       </c>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:6" ht="30">
+    <row r="341" spans="1:6">
       <c r="A341" s="1" t="s">
         <v>495</v>
       </c>
@@ -34328,7 +34339,7 @@
       </c>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:6" ht="30">
+    <row r="344" spans="1:6">
       <c r="A344" s="1" t="s">
         <v>495</v>
       </c>
@@ -45839,7 +45850,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -45851,7 +45862,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -45863,7 +45874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -45922,7 +45933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -45967,9 +45978,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="53.6328125" customWidth="1"/>
+    <col min="2" max="2" width="47.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -46822,7 +46839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -46834,7 +46851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -46903,7 +46920,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -46940,7 +46957,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -47383,7 +47400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -47395,7 +47412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
@@ -47409,7 +47426,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -47442,7 +47459,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
